--- a/DB and Documents/WASHB_DRAFT_MLHEFather.xlsx
+++ b/DB and Documents/WASHB_DRAFT_MLHEFather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
@@ -2648,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="Q46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3579,7 +3579,7 @@
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('25', 'q24','frmsinglechoice', 'tblMainQues','','24.Did the mother have a mouth rinse #2?','','q25','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="126">
+    <row r="27" spans="1:22" ht="110.25">
       <c r="A27" s="132">
         <v>26</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>176</v>
       </c>
       <c r="C52" s="132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="132" t="s">
         <v>37</v>
@@ -4474,7 +4474,7 @@
       <c r="U52" s="132"/>
       <c r="V52" s="132" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('51', 'q50z1','frmtext', 'tblMainQues','','50.Z01 Random ID','','q51z1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('51', 'q50z1','frmmessage', 'tblMainQues','','50.Z01 Random ID','','q51z1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4556,7 +4556,7 @@
         <v>184</v>
       </c>
       <c r="C55" s="132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="132" t="s">
         <v>37</v>
@@ -4581,7 +4581,7 @@
       <c r="U55" s="132"/>
       <c r="V55" s="132" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('54', 'q50z2','frmtext', 'tblMainQues','','50.Z02 Random ID','','q51z2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('54', 'q50z2','frmmessage', 'tblMainQues','','50.Z02 Random ID','','q51z2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4664,7 +4664,7 @@
         <v>193</v>
       </c>
       <c r="C58" s="132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" s="132" t="s">
         <v>37</v>
@@ -4689,7 +4689,7 @@
       <c r="U58" s="132"/>
       <c r="V58" s="132" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('57', 'q50z3','frmtext', 'tblMainQues','','50.Z03 Random ID','','q51z3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('57', 'q50z3','frmmessage', 'tblMainQues','','50.Z03 Random ID','','q51z3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4849,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C92" activeCellId="1" sqref="C96 C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
